--- a/dataset templat.xlsx
+++ b/dataset templat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ta\htdocs\spk-pk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AM\Desktop\Rekaman\spk-pkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65EC703-0A2F-4F5B-9A76-9404A97D72CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA65A77-70F7-4A1B-A6CD-0E4514058DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{A97AA063-B43D-4864-8E72-A777B758A5CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A97AA063-B43D-4864-8E72-A777B758A5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Atribut" sheetId="3" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032BEB3-455C-4081-859E-A1D5EDDFC19B}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1238,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905501AF-A35D-4D83-8347-8DD04205D83C}">
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
